--- a/04_paper/Reference list.xlsx
+++ b/04_paper/Reference list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucie Lu\Box Sync\Xinhua co-authoring project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618C2310-AF70-4DAD-9B42-6597603852B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB2800-6540-4871-A164-F440FB6CA73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19298" yWindow="1125" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>Author</t>
   </si>
@@ -295,6 +295,54 @@
   </si>
   <si>
     <t>Background information</t>
+  </si>
+  <si>
+    <t>About setting up the coordination of aids agency in China</t>
+  </si>
+  <si>
+    <t>https://go-gale-com.proxy2.library.illinois.edu/ps/retrieve.do?tabID=Viewpoints&amp;resultListType=RESULT_LIST&amp;searchResultsType=MultiTab&amp;hitCount=290&amp;searchType=BasicSearchForm&amp;currentPosition=3&amp;docId=GALE%7CEJ3010296283&amp;docType=Viewpoint+essay&amp;sort=Relevance&amp;contentSegment=ZXAY-MOD1&amp;prodId=OVIC&amp;pageNum=1&amp;contentSet=GALE%7CEJ3010296283&amp;searchId=R2&amp;userGroupName=uiuc_uc&amp;inPS=true</t>
+  </si>
+  <si>
+    <t>China exemplifies anti-democratic success in the developing world</t>
+  </si>
+  <si>
+    <t>Kurlantzick et al.</t>
+  </si>
+  <si>
+    <t>China gives out aids and loans. A graph showing top 20 borrowers diversed in geography and finance</t>
+  </si>
+  <si>
+    <t>https://www.cfr.org/backgrounder/chinas-big-bet-soft-power</t>
+  </si>
+  <si>
+    <t>China's Big Bet on Soft Power</t>
+  </si>
+  <si>
+    <t>Council on Foreign Relations</t>
+  </si>
+  <si>
+    <t>https://www.google.com/books/edition/Confronting_The_Curse/5KxoDQAAQBAJ?hl=en&amp;gbpv=1&amp;pg=PP1&amp;printsec=frontcover</t>
+  </si>
+  <si>
+    <t>Confronting the Curse: The Economics and Geopolitics of Natural Resource Governance</t>
+  </si>
+  <si>
+    <t>Rogue Aid? An Empirical Analysis of China's Aid Allocation </t>
+  </si>
+  <si>
+    <t>Dreher &amp; Fuchs</t>
+  </si>
+  <si>
+    <t>Do authoritarian regimes receive more Chinese development finance than democratic ones? Empirical evidence for Africa.</t>
+  </si>
+  <si>
+    <t>Broich</t>
+  </si>
+  <si>
+    <t>Are ‘New’ Donors Different? Comparing the Allocation of Bilateral Aid between Non-DAC and DAC Donor Countries</t>
+  </si>
+  <si>
+    <t>Is Favoritism a Threat to Chinese Aid Effectiveness? A Subnational Analysis of Chinese Development Projects</t>
   </si>
 </sst>
 </file>
@@ -310,17 +358,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,7 +393,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -353,17 +401,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,17 +691,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1"/>
+    <col min="3" max="3" width="54.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="2"/>
     <col min="5" max="5" width="44.9296875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="40" style="1"/>
@@ -711,338 +757,420 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2019</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>2021</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>2018</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>2013</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>2008</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>2010</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>2018</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>2009</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>2013</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>2016</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>2017</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>2018</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="6">
         <v>2021</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>2004</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>2005</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>2000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>2017</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" tooltip="View other papers by this author" display="https://papers-ssrn-com.proxy2.library.illinois.edu/sol3/cf_dev/AbsByAuth.cfm?per_id=1538181" xr:uid="{14C014BC-C2E3-49E2-A5CE-BD20AEBDF5D0}"/>
+    <hyperlink ref="C27" r:id="rId1" display="https://www.semanticscholar.org/paper/ac656dbfae9d9f90e25cf9572bd6604e73a0d59d" xr:uid="{53FDF04B-6A9B-455E-8269-3242538C5606}"/>
+    <hyperlink ref="C28" r:id="rId2" display="https://www.semanticscholar.org/paper/01536da7b7c75f3a2427b41b805cd3d888491f8a" xr:uid="{30EEA7B7-5718-4F97-A478-028E43A65AAB}"/>
+    <hyperlink ref="C30" r:id="rId3" display="https://www.semanticscholar.org/paper/0f0dfd4a76957f00d3f2f87b03f9a939ed67fbb2" xr:uid="{AD6F692F-CD85-48A9-B6E3-CCB505CE6C93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>